--- a/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>32</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>32</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>96</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>32</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>208</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>208</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>48</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>336</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>208</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>

--- a/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,313 @@
       </c>
       <c r="B6" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-67.66950355233121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.3159955478662</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-49.87345786671792</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100.6409310031277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-40.3884513316171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125.1543256468661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-35.47951298690523</v>
+      </c>
+      <c r="D5" t="n">
+        <v>126.6427010868983</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-25.88191703029135</v>
+      </c>
+      <c r="D6" t="n">
+        <v>134.1455836590783</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-27.67586534479397</v>
+      </c>
+      <c r="D7" t="n">
+        <v>134.3802074438634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>64</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-16.11733200786935</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150.8042835833479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>71</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.614536674724873</v>
+      </c>
+      <c r="D9" t="n">
+        <v>152.5320757798558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.766198220653991</v>
+      </c>
+      <c r="D10" t="n">
+        <v>165.3318796396945</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>110</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.4123174498096</v>
+      </c>
+      <c r="D11" t="n">
+        <v>193.1771067448674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>129</v>
+      </c>
+      <c r="C12" t="n">
+        <v>43.79705095228192</v>
+      </c>
+      <c r="D12" t="n">
+        <v>215.6875837923046</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54.56226445931316</v>
+      </c>
+      <c r="D13" t="n">
+        <v>216.2412718404678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>142</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57.64649546219925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>229.6070562166537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>63.63803641489062</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229.4685184460312</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>155</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75.07151667455119</v>
+      </c>
+      <c r="D16" t="n">
+        <v>233.5628794327899</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>161</v>
+      </c>
+      <c r="C17" t="n">
+        <v>75.9633178919581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>247.1942482798513</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87.02751843487454</v>
+      </c>
+      <c r="D18" t="n">
+        <v>252.1225955050013</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>174</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91.34410982895571</v>
+      </c>
+      <c r="D19" t="n">
+        <v>258.0767051570981</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>181</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98.68462439458507</v>
+      </c>
+      <c r="D20" t="n">
+        <v>261.2993831037251</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH9NG3_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
-        <v>-67.66950355233121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.3159955478662</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>-49.87345786671792</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100.6409310031277</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>38</v>
       </c>
-      <c r="C4" t="n">
-        <v>-40.3884513316171</v>
-      </c>
-      <c r="D4" t="n">
-        <v>125.1543256468661</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>-35.47951298690523</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126.6427010868983</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>51</v>
       </c>
-      <c r="C6" t="n">
-        <v>-25.88191703029135</v>
-      </c>
-      <c r="D6" t="n">
-        <v>134.1455836590783</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>58</v>
       </c>
-      <c r="C7" t="n">
-        <v>-27.67586534479397</v>
-      </c>
-      <c r="D7" t="n">
-        <v>134.3802074438634</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>64</v>
       </c>
-      <c r="C8" t="n">
-        <v>-16.11733200786935</v>
-      </c>
-      <c r="D8" t="n">
-        <v>150.8042835833479</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>71</v>
       </c>
-      <c r="C9" t="n">
-        <v>-8.614536674724873</v>
-      </c>
-      <c r="D9" t="n">
-        <v>152.5320757798558</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>77</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.766198220653991</v>
-      </c>
-      <c r="D10" t="n">
-        <v>165.3318796396945</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>110</v>
       </c>
-      <c r="C11" t="n">
-        <v>23.4123174498096</v>
-      </c>
-      <c r="D11" t="n">
-        <v>193.1771067448674</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>129</v>
       </c>
-      <c r="C12" t="n">
-        <v>43.79705095228192</v>
-      </c>
-      <c r="D12" t="n">
-        <v>215.6875837923046</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>135</v>
       </c>
-      <c r="C13" t="n">
-        <v>54.56226445931316</v>
-      </c>
-      <c r="D13" t="n">
-        <v>216.2412718404678</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>142</v>
       </c>
-      <c r="C14" t="n">
-        <v>57.64649546219925</v>
-      </c>
-      <c r="D14" t="n">
-        <v>229.6070562166537</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>148</v>
       </c>
-      <c r="C15" t="n">
-        <v>63.63803641489062</v>
-      </c>
-      <c r="D15" t="n">
-        <v>229.4685184460312</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>155</v>
       </c>
-      <c r="C16" t="n">
-        <v>75.07151667455119</v>
-      </c>
-      <c r="D16" t="n">
-        <v>233.5628794327899</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>161</v>
       </c>
-      <c r="C17" t="n">
-        <v>75.9633178919581</v>
-      </c>
-      <c r="D17" t="n">
-        <v>247.1942482798513</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>168</v>
       </c>
-      <c r="C18" t="n">
-        <v>87.02751843487454</v>
-      </c>
-      <c r="D18" t="n">
-        <v>252.1225955050013</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -896,12 +784,6 @@
       <c r="B19" t="n">
         <v>174</v>
       </c>
-      <c r="C19" t="n">
-        <v>91.34410982895571</v>
-      </c>
-      <c r="D19" t="n">
-        <v>258.0767051570981</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -909,12 +791,6 @@
       </c>
       <c r="B20" t="n">
         <v>181</v>
-      </c>
-      <c r="C20" t="n">
-        <v>98.68462439458507</v>
-      </c>
-      <c r="D20" t="n">
-        <v>261.2993831037251</v>
       </c>
     </row>
   </sheetData>
